--- a/data/trans_orig/P79_n_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R3-Provincia-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18999</v>
+        <v>15665</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009284858981934244</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06011172929402243</v>
+        <v>0.04956272246560636</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14799</v>
+        <v>17312</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00462206822855582</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02330834787444855</v>
+        <v>0.02726764885627966</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4814</v>
+        <v>4662</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002523371287959411</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01509722928212116</v>
+        <v>0.01462034479535609</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2553</v>
+        <v>2757</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001581172112880486</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.008076984316449654</v>
+        <v>0.00872225553149599</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4410</v>
+        <v>4205</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002054337899237273</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006946405538301023</v>
+        <v>0.00662321209940799</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>7530</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2764</v>
+        <v>2952</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19721</v>
+        <v>17651</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.02361717447496207</v>
+        <v>0.02361717447496208</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008669142326104507</v>
+        <v>0.00925704469248588</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06185247505039508</v>
+        <v>0.05535802619610688</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -896,19 +896,19 @@
         <v>3011</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>972</v>
+        <v>998</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7353</v>
+        <v>8527</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.009527578698914206</v>
+        <v>0.009527578698914204</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00307495074664607</v>
+        <v>0.003156504838400035</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02326444442001018</v>
+        <v>0.02697823324381126</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -917,19 +917,19 @@
         <v>10542</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5381</v>
+        <v>5403</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22365</v>
+        <v>22460</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01660327441289581</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008476007888248434</v>
+        <v>0.008510662752741004</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03522553489717827</v>
+        <v>0.03537459308396429</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>310510</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>298695</v>
+        <v>300659</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>315480</v>
+        <v>315223</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9738594542370784</v>
+        <v>0.9738594542370786</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9368022758447855</v>
+        <v>0.9429620079720971</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9894458774001537</v>
+        <v>0.9886389503493747</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>531</v>
@@ -967,19 +967,19 @@
         <v>309615</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>295032</v>
+        <v>298127</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>313701</v>
+        <v>313702</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.979606390206271</v>
+        <v>0.9796063902062709</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9334666850339312</v>
+        <v>0.9432587496532907</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9925342887767286</v>
+        <v>0.9925352981095614</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>855</v>
@@ -988,19 +988,19 @@
         <v>620126</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>605306</v>
+        <v>605216</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>626928</v>
+        <v>626755</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9767203194593113</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9533784848383151</v>
+        <v>0.9532367208252872</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9874346900293283</v>
+        <v>0.9871625778299692</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>6238</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1893</v>
+        <v>1374</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17758</v>
+        <v>18348</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01175486030013237</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.003567784760229781</v>
+        <v>0.002589876018382591</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03346501449140471</v>
+        <v>0.03457596411444348</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1113,19 +1113,19 @@
         <v>4192</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1520</v>
+        <v>1484</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9173</v>
+        <v>9005</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.007671002092108957</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.002782182419628919</v>
+        <v>0.002715124910661236</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01678456382257905</v>
+        <v>0.01647697581239749</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -1134,19 +1134,19 @@
         <v>10430</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5169</v>
+        <v>5069</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>21519</v>
+        <v>22539</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.009682889507687991</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004798531843054945</v>
+        <v>0.004706295129580348</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01997780634274974</v>
+        <v>0.02092497752970886</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>13459</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6343</v>
+        <v>6044</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28043</v>
+        <v>28680</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02536405682803196</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01195412042801712</v>
+        <v>0.01139063456224646</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05284610302961614</v>
+        <v>0.05404784791374954</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1184,19 +1184,19 @@
         <v>13162</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7515</v>
+        <v>7730</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21014</v>
+        <v>20904</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02408385677947706</v>
+        <v>0.02408385677947705</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0137507749000431</v>
+        <v>0.0141446346239739</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03845273105273599</v>
+        <v>0.03825120048118847</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1205,19 +1205,19 @@
         <v>26621</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17397</v>
+        <v>17634</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45242</v>
+        <v>42458</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0247145393928085</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01615153578311528</v>
+        <v>0.01637136204882438</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04200176150509618</v>
+        <v>0.03941694134801269</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>38728</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25969</v>
+        <v>26188</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>57895</v>
+        <v>56935</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07298268560451987</v>
+        <v>0.07298268560451988</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0489377999045022</v>
+        <v>0.04935190962932078</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1091018096611275</v>
+        <v>0.107293335470582</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>37</v>
@@ -1255,19 +1255,19 @@
         <v>29941</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21205</v>
+        <v>21559</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40642</v>
+        <v>41056</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05478829145364053</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03880248926392111</v>
+        <v>0.03945000829867681</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07436780322238115</v>
+        <v>0.07512600866571387</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>62</v>
@@ -1276,19 +1276,19 @@
         <v>68670</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53353</v>
+        <v>52545</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>90875</v>
+        <v>90513</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.06375164687923349</v>
+        <v>0.06375164687923347</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0495322640008278</v>
+        <v>0.04878213481295638</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08436701394168972</v>
+        <v>0.08403093475552163</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>472222</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>452360</v>
+        <v>449345</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>487460</v>
+        <v>488487</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8898983972673158</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8524684523293464</v>
+        <v>0.8467874043141382</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9186142937409147</v>
+        <v>0.9205506735786509</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>658</v>
@@ -1326,19 +1326,19 @@
         <v>499199</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>486475</v>
+        <v>486078</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>509398</v>
+        <v>510741</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9134568496747736</v>
+        <v>0.9134568496747735</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8901750417892257</v>
+        <v>0.8894480361957379</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9321209135011347</v>
+        <v>0.9345773259041618</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1002</v>
@@ -1347,19 +1347,19 @@
         <v>971421</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>946268</v>
+        <v>947092</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>991889</v>
+        <v>992905</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.90185092422027</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.878499270650993</v>
+        <v>0.8792650292531512</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9208535374507703</v>
+        <v>0.9217967755511737</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>3808</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10729</v>
+        <v>11140</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01205019268910899</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002921571613798831</v>
+        <v>0.002896020871551077</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03395179101147036</v>
+        <v>0.03525365306758393</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1472,19 +1472,19 @@
         <v>2799</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8573</v>
+        <v>8159</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007853811112031804</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001831539503985542</v>
+        <v>0.001834854909212534</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02405527119529594</v>
+        <v>0.0228940387441059</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1493,19 +1493,19 @@
         <v>6607</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2576</v>
+        <v>2606</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16371</v>
+        <v>15051</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.009825968698987018</v>
+        <v>0.009825968698987017</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003831295129528511</v>
+        <v>0.003876111253540995</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02434814940557084</v>
+        <v>0.02238549299396764</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>3574</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8560</v>
+        <v>9063</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01131137501222739</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.00300624644867639</v>
+        <v>0.003014446040625435</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02708906813539316</v>
+        <v>0.02868137059095389</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>8</v>
@@ -1543,19 +1543,19 @@
         <v>5953</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2666</v>
+        <v>2509</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11988</v>
+        <v>11440</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01670530098909323</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.007481014826452816</v>
+        <v>0.007040490024755029</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03363715719605034</v>
+        <v>0.03210071933125923</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>12</v>
@@ -1564,19 +1564,19 @@
         <v>9528</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>5242</v>
+        <v>4967</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>17482</v>
+        <v>16504</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01417033798743026</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.00779616304629701</v>
+        <v>0.007387985889110413</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02600109883225424</v>
+        <v>0.02454624499139562</v>
       </c>
     </row>
     <row r="16">
@@ -1593,19 +1593,19 @@
         <v>10674</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5708</v>
+        <v>6063</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18379</v>
+        <v>19117</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03377855927236603</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01806228669733879</v>
+        <v>0.01918763452243764</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05816139899942878</v>
+        <v>0.06049736745250113</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1614,19 +1614,19 @@
         <v>14314</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8539</v>
+        <v>8902</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21805</v>
+        <v>22168</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04016529104596556</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02396093314721737</v>
+        <v>0.02497993024162219</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0611836006672631</v>
+        <v>0.06220363138473305</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1635,19 +1635,19 @@
         <v>24988</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16796</v>
+        <v>17761</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34988</v>
+        <v>35837</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0371637428569362</v>
+        <v>0.03716374285693619</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02497986623956717</v>
+        <v>0.02641492120047807</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05203659965155809</v>
+        <v>0.05329905381797759</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>297937</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>287837</v>
+        <v>286510</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>305006</v>
+        <v>304247</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9428598730262975</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9108972104523699</v>
+        <v>0.9066961930094236</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.965229094597735</v>
+        <v>0.9628269704351091</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>506</v>
@@ -1685,19 +1685,19 @@
         <v>333314</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>322956</v>
+        <v>323633</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>340869</v>
+        <v>341106</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9352755968529094</v>
+        <v>0.9352755968529093</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9062095743585054</v>
+        <v>0.908109415025167</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9564725042199899</v>
+        <v>0.9571384907264575</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>847</v>
@@ -1706,19 +1706,19 @@
         <v>631253</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>619336</v>
+        <v>619205</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>642499</v>
+        <v>641450</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9388399504566466</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9211163431303099</v>
+        <v>0.9209221832523223</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9555662624698371</v>
+        <v>0.9540064756284519</v>
       </c>
     </row>
     <row r="18">
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8367</v>
+        <v>10716</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007409836772419464</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02242377273649854</v>
+        <v>0.02871724856409748</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1831,19 +1831,19 @@
         <v>2275</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6156</v>
+        <v>6235</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.005391535183870836</v>
+        <v>0.005391535183870838</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001463335368892568</v>
+        <v>0.001489108000421034</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01458804339894832</v>
+        <v>0.01477706573844898</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1852,19 +1852,19 @@
         <v>5040</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1600</v>
+        <v>1359</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12269</v>
+        <v>11235</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.00633872839163846</v>
+        <v>0.006338728391638459</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002012229347402457</v>
+        <v>0.00170909799184025</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01543027969603931</v>
+        <v>0.014130697335725</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>2754</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>814</v>
+        <v>581</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8501</v>
+        <v>8147</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.007379207893009991</v>
+        <v>0.00737920789300999</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002180852397658868</v>
+        <v>0.001555758137424394</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02278259233536125</v>
+        <v>0.02183242721629095</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -1902,19 +1902,19 @@
         <v>10888</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5086</v>
+        <v>6015</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24446</v>
+        <v>25974</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.02580224178776332</v>
+        <v>0.02580224178776333</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01205341816687384</v>
+        <v>0.01425540488144465</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05793389746450748</v>
+        <v>0.06155656114342661</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -1923,19 +1923,19 @@
         <v>13641</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7461</v>
+        <v>7556</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>28389</v>
+        <v>27856</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.01715627298379901</v>
+        <v>0.017156272983799</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009383869412196072</v>
+        <v>0.009502648529071457</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03570506660462785</v>
+        <v>0.03503370173537917</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>39354</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25327</v>
+        <v>24967</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>59378</v>
+        <v>59917</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1054650942646737</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06787330399159745</v>
+        <v>0.06690994743782508</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1591289928561037</v>
+        <v>0.1605742272479874</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>36</v>
@@ -1973,19 +1973,19 @@
         <v>26340</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17780</v>
+        <v>18798</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>36477</v>
+        <v>38524</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.06242307405928765</v>
+        <v>0.06242307405928766</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04213587989846087</v>
+        <v>0.04454904681028955</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08644722041966746</v>
+        <v>0.09129743234138338</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>61</v>
@@ -1994,19 +1994,19 @@
         <v>65694</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>48428</v>
+        <v>49058</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>89155</v>
+        <v>91029</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.08262278525133789</v>
+        <v>0.08262278525133786</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06090802548993242</v>
+        <v>0.0616996547714402</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1121293367965656</v>
+        <v>0.1144861103316417</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>328273</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>306926</v>
+        <v>305908</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>343513</v>
+        <v>343038</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8797458610698971</v>
+        <v>0.8797458610698968</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.822538035324089</v>
+        <v>0.8198105871942488</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9205876890886369</v>
+        <v>0.9193144048605721</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>550</v>
@@ -2044,19 +2044,19 @@
         <v>382458</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>366944</v>
+        <v>366811</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>392528</v>
+        <v>391834</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9063831489690782</v>
+        <v>0.9063831489690783</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8696152502436533</v>
+        <v>0.869299751515061</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9302480930249545</v>
+        <v>0.9286030085810406</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>812</v>
@@ -2065,19 +2065,19 @@
         <v>710732</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>683896</v>
+        <v>685095</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>729198</v>
+        <v>729671</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8938822133732246</v>
+        <v>0.8938822133732245</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8601305749033464</v>
+        <v>0.8616381489792124</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9171072573713233</v>
+        <v>0.9177013580361786</v>
       </c>
     </row>
     <row r="23">
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2315</v>
+        <v>2487</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.001686434966249996</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01011153019541205</v>
+        <v>0.01086294435807319</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2260</v>
+        <v>2006</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0008883348911156813</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.005200980619995617</v>
+        <v>0.004616350105289348</v>
       </c>
     </row>
     <row r="25">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4018</v>
+        <v>3994</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005515259806558506</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01953848140252119</v>
+        <v>0.0194208813782976</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01032390145326162</v>
+        <v>0.01032339393215869</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -2274,19 +2274,19 @@
         <v>1598</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4058</v>
+        <v>4184</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003678120798165647</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00105385820758969</v>
+        <v>0.001050809233283792</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009337269085875547</v>
+        <v>0.009627654731927858</v>
       </c>
     </row>
     <row r="26">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5462</v>
+        <v>5437</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007306490916291801</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02655747451985725</v>
+        <v>0.02643441016024421</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -2324,19 +2324,19 @@
         <v>4482</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2162</v>
+        <v>2082</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9784</v>
+        <v>9038</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01957794223289723</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00944447324925287</v>
+        <v>0.009094459978607651</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04273863152008218</v>
+        <v>0.03948071145675856</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -2345,19 +2345,19 @@
         <v>5984</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2754</v>
+        <v>2990</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10978</v>
+        <v>11565</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01377051626403954</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006336004126278294</v>
+        <v>0.006880350807044303</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02526012194534109</v>
+        <v>0.02661227545706485</v>
       </c>
     </row>
     <row r="27">
@@ -2374,19 +2374,19 @@
         <v>203028</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>198888</v>
+        <v>198827</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>204685</v>
+        <v>205067</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9871782492771496</v>
+        <v>0.9871782492771497</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9670489092777436</v>
+        <v>0.9667518670569757</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9952345857109889</v>
+        <v>0.9970900563905127</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>484</v>
@@ -2395,19 +2395,19 @@
         <v>223586</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>218641</v>
+        <v>218942</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>226083</v>
+        <v>226293</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.976708029067755</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.955104830606028</v>
+        <v>0.9564195133621732</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9876141674116348</v>
+        <v>0.9885339305577333</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>759</v>
@@ -2416,19 +2416,19 @@
         <v>426613</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>421274</v>
+        <v>420783</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>430412</v>
+        <v>430010</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.981663028046679</v>
+        <v>0.9816630280466793</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9693765530994298</v>
+        <v>0.9682476833711176</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9904038906026565</v>
+        <v>0.9894793747402258</v>
       </c>
     </row>
     <row r="28">
@@ -2520,19 +2520,19 @@
         <v>3186</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8595</v>
+        <v>9911</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01176865322763498</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002954337389369517</v>
+        <v>0.002949738810342087</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03174845093846482</v>
+        <v>0.0366102092827048</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2544,16 +2544,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4601</v>
+        <v>4807</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.004953924367898195</v>
+        <v>0.004953924367898193</v>
       </c>
       <c r="O29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01744332034675</v>
+        <v>0.01822735155642647</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -2562,19 +2562,19 @@
         <v>4492</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1471</v>
+        <v>1417</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10707</v>
+        <v>10499</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008405640274164055</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002751749619954282</v>
+        <v>0.002650446249206519</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02003250562687744</v>
+        <v>0.01964346407803806</v>
       </c>
     </row>
     <row r="30">
@@ -2591,19 +2591,19 @@
         <v>3373</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8009</v>
+        <v>8765</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01245861647766217</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003300439363623854</v>
+        <v>0.003315900463873354</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02958429298425939</v>
+        <v>0.03237921846540499</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -2612,19 +2612,19 @@
         <v>6418</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2829</v>
+        <v>3020</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12220</v>
+        <v>13465</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.02433538129011318</v>
+        <v>0.02433538129011317</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0107273090602508</v>
+        <v>0.01144889463541045</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04633344572361493</v>
+        <v>0.05105301378769966</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>13</v>
@@ -2633,19 +2633,19 @@
         <v>9791</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5374</v>
+        <v>5359</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>17083</v>
+        <v>17124</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01831970277055734</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0100546149186893</v>
+        <v>0.01002685116453127</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03196400763523137</v>
+        <v>0.03203907871151627</v>
       </c>
     </row>
     <row r="31">
@@ -2662,19 +2662,19 @@
         <v>8366</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3790</v>
+        <v>4364</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14944</v>
+        <v>14866</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03090368909357007</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01400077212621737</v>
+        <v>0.01612247974421408</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05520316772967019</v>
+        <v>0.05491411557029278</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -2683,19 +2683,19 @@
         <v>8567</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4493</v>
+        <v>4359</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>15021</v>
+        <v>15370</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.03248268076460577</v>
+        <v>0.03248268076460575</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01703469727287705</v>
+        <v>0.01652562232892106</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0569527100884523</v>
+        <v>0.05827566735232801</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>22</v>
@@ -2704,19 +2704,19 @@
         <v>16933</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10635</v>
+        <v>10727</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>26493</v>
+        <v>24970</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03168290856838873</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01989847418082622</v>
+        <v>0.02007007329585476</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0495700254779613</v>
+        <v>0.04671956415352722</v>
       </c>
     </row>
     <row r="32">
@@ -2733,19 +2733,19 @@
         <v>255783</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>247083</v>
+        <v>246216</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>262126</v>
+        <v>261484</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9448690412011328</v>
+        <v>0.9448690412011327</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9127307320423007</v>
+        <v>0.9095307466745044</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9683022834639781</v>
+        <v>0.9659303088173583</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>437</v>
@@ -2754,19 +2754,19 @@
         <v>247458</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>238662</v>
+        <v>239110</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>253372</v>
+        <v>253192</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.9382280135773829</v>
+        <v>0.9382280135773826</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9048801582729944</v>
+        <v>0.9065796513034593</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9606520586979773</v>
+        <v>0.9599683875118616</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>791</v>
@@ -2775,19 +2775,19 @@
         <v>503240</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>491916</v>
+        <v>492585</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>511832</v>
+        <v>511486</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9415917483868899</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9204026124554739</v>
+        <v>0.9216544794656097</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9576670691265846</v>
+        <v>0.957020221716383</v>
       </c>
     </row>
     <row r="33">
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7409</v>
+        <v>7427</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.002870206370491955</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01029535754705977</v>
+        <v>0.01032036185429703</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -2900,19 +2900,19 @@
         <v>3672</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8205</v>
+        <v>8716</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.004755617051684127</v>
+        <v>0.004755617051684126</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.001814751827770886</v>
+        <v>0.00181033483209666</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01062774619794484</v>
+        <v>0.0112890388977925</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7</v>
@@ -2921,19 +2921,19 @@
         <v>5737</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2490</v>
+        <v>2524</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>11537</v>
+        <v>11533</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.003846006682259889</v>
+        <v>0.00384600668225989</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001669021224939296</v>
+        <v>0.001692269835988749</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.007733663358905526</v>
+        <v>0.007731125123733478</v>
       </c>
     </row>
     <row r="35">
@@ -2950,19 +2950,19 @@
         <v>6329</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2951</v>
+        <v>2122</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13751</v>
+        <v>12472</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.008793409183498736</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.004100659429464934</v>
+        <v>0.00294847447971466</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01910641414973343</v>
+        <v>0.01733041997631143</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>14</v>
@@ -2971,19 +2971,19 @@
         <v>10566</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5911</v>
+        <v>6121</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>17673</v>
+        <v>17894</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01368500358947239</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.007656082918958592</v>
+        <v>0.007928345562592882</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02289101174644205</v>
+        <v>0.02317641479317148</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>20</v>
@@ -2992,19 +2992,19 @@
         <v>16894</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10645</v>
+        <v>10517</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>26420</v>
+        <v>25407</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0113250694705685</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.007136125735216499</v>
+        <v>0.007050130997041524</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01771085671698415</v>
+        <v>0.01703162888617016</v>
       </c>
     </row>
     <row r="36">
@@ -3021,19 +3021,19 @@
         <v>24633</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15865</v>
+        <v>15982</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>37415</v>
+        <v>38761</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.034227753773155</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02204407677966529</v>
+        <v>0.02220685143626691</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05198800130585293</v>
+        <v>0.05385806826156853</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>68</v>
@@ -3042,19 +3042,19 @@
         <v>60142</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>46418</v>
+        <v>47720</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>77036</v>
+        <v>77664</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.07789808513410802</v>
+        <v>0.07789808513410805</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06012261314787604</v>
+        <v>0.06180920475466207</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09978075633933213</v>
+        <v>0.1005942386559936</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>89</v>
@@ -3063,19 +3063,19 @@
         <v>84775</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>66881</v>
+        <v>67906</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>103776</v>
+        <v>105723</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05682947306016033</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0448344256177552</v>
+        <v>0.04552094611426603</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06956716367980936</v>
+        <v>0.07087188037545691</v>
       </c>
     </row>
     <row r="37">
@@ -3092,19 +3092,19 @@
         <v>686660</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>672577</v>
+        <v>672669</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>696922</v>
+        <v>697093</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.9541086306728543</v>
+        <v>0.9541086306728545</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9345414618764206</v>
+        <v>0.9346681945311287</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9683682747217317</v>
+        <v>0.9686051647790801</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>873</v>
@@ -3113,19 +3113,19 @@
         <v>697678</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>679365</v>
+        <v>678911</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>711885</v>
+        <v>711766</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.9036612942247353</v>
+        <v>0.9036612942247354</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8799411710904647</v>
+        <v>0.8793528759993798</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9220627141388864</v>
+        <v>0.9219085362357454</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1443</v>
@@ -3134,19 +3134,19 @@
         <v>1384338</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1363144</v>
+        <v>1361918</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1402518</v>
+        <v>1403325</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.9279994507870114</v>
+        <v>0.9279994507870113</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9137920949726012</v>
+        <v>0.9129704468039401</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9401866326862516</v>
+        <v>0.9407280159510325</v>
       </c>
     </row>
     <row r="38">
@@ -3238,19 +3238,19 @@
         <v>5468</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1774</v>
+        <v>1863</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>12877</v>
+        <v>12469</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.006851649209600624</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.002222731526204664</v>
+        <v>0.002334523200246447</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01613570659019621</v>
+        <v>0.01562340907047235</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>5</v>
@@ -3259,19 +3259,19 @@
         <v>3821</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>8470</v>
+        <v>9099</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.004596120101429129</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.001792762358398052</v>
+        <v>0.001791619322310265</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.0101887784636325</v>
+        <v>0.01094529649349722</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>10</v>
@@ -3280,19 +3280,19 @@
         <v>9289</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>4784</v>
+        <v>4741</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>17257</v>
+        <v>17073</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.005700864606068218</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.002935857613744993</v>
+        <v>0.00290977757703048</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01059092638843902</v>
+        <v>0.01047796745578747</v>
       </c>
     </row>
     <row r="40">
@@ -3309,19 +3309,19 @@
         <v>91726</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>73652</v>
+        <v>74834</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>113039</v>
+        <v>112557</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1149341756982643</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.09228724748202254</v>
+        <v>0.09376880018680187</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1416398699859416</v>
+        <v>0.1410360930094849</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>105</v>
@@ -3330,19 +3330,19 @@
         <v>81857</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>67318</v>
+        <v>67472</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>99157</v>
+        <v>98923</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.09846528713232698</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08097643924254351</v>
+        <v>0.08116198169295663</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1192747667665046</v>
+        <v>0.1189930132377543</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>194</v>
@@ -3351,19 +3351,19 @@
         <v>173583</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>150909</v>
+        <v>149964</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>198005</v>
+        <v>198232</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1065316490670139</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0926161619693007</v>
+        <v>0.09203637879521963</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1215199010796324</v>
+        <v>0.1216593289247173</v>
       </c>
     </row>
     <row r="41">
@@ -3380,19 +3380,19 @@
         <v>203717</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>178594</v>
+        <v>181399</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>229179</v>
+        <v>230334</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2552618369703233</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2237819436795365</v>
+        <v>0.227296902932712</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2871663302538396</v>
+        <v>0.2886131605042092</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>290</v>
@@ -3401,19 +3401,19 @@
         <v>220844</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>200383</v>
+        <v>199278</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>245822</v>
+        <v>245610</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.265651339823664</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2410387090319024</v>
+        <v>0.2397097855279328</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.295696612682079</v>
+        <v>0.2954423839353654</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>493</v>
@@ -3422,19 +3422,19 @@
         <v>424562</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>391773</v>
+        <v>390966</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>459328</v>
+        <v>458484</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2605626242129552</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2404397574574643</v>
+        <v>0.2399444111973737</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2818994838295319</v>
+        <v>0.2813817984461001</v>
       </c>
     </row>
     <row r="42">
@@ -3451,19 +3451,19 @@
         <v>497161</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>465491</v>
+        <v>464397</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>524498</v>
+        <v>524292</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.6229523381218116</v>
+        <v>0.6229523381218117</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5832691075346885</v>
+        <v>0.5818989576664133</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6572063973741317</v>
+        <v>0.6569485002750046</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>662</v>
@@ -3472,19 +3472,19 @@
         <v>524809</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>499058</v>
+        <v>498240</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>549937</v>
+        <v>547522</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.6312872529425799</v>
+        <v>0.6312872529425798</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.6003116658988775</v>
+        <v>0.5993276913923535</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6615138589715597</v>
+        <v>0.6586089799710869</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1127</v>
@@ -3493,19 +3493,19 @@
         <v>1021969</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>985069</v>
+        <v>985029</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1061875</v>
+        <v>1060538</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6272048621139625</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.6045584364401497</v>
+        <v>0.6045337527596287</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6516955331131873</v>
+        <v>0.6508754768065177</v>
       </c>
     </row>
     <row r="43">
@@ -3597,19 +3597,19 @@
         <v>23530</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>14658</v>
+        <v>14081</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>37555</v>
+        <v>38459</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.006660518182240778</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.004149040242651668</v>
+        <v>0.003985711436498964</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01063038885979341</v>
+        <v>0.01088633162236314</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>26</v>
@@ -3618,19 +3618,19 @@
         <v>21386</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>13451</v>
+        <v>13163</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>32425</v>
+        <v>33885</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.0057228078486556</v>
+        <v>0.005722807848655599</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.003599539113081227</v>
+        <v>0.003522360778612672</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.008676955169949358</v>
+        <v>0.009067558785440312</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>45</v>
@@ -3639,19 +3639,19 @@
         <v>44916</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>32541</v>
+        <v>32208</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>61935</v>
+        <v>61529</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.006178493781036172</v>
+        <v>0.00617849378103617</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.004476296122449319</v>
+        <v>0.004430390052723581</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.008519638800554811</v>
+        <v>0.008463762493278525</v>
       </c>
     </row>
     <row r="45">
@@ -3668,19 +3668,19 @@
         <v>123153</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>99756</v>
+        <v>100963</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>147320</v>
+        <v>146374</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.03486024065306785</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02823735785709536</v>
+        <v>0.02857895346940222</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.04170110434498166</v>
+        <v>0.04143321767823199</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>164</v>
@@ -3689,19 +3689,19 @@
         <v>129808</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>111539</v>
+        <v>110926</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>153197</v>
+        <v>153005</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.03473629793426952</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.02984755455384609</v>
+        <v>0.02968340431233357</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.04099511900100573</v>
+        <v>0.04094375220595912</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>282</v>
@@ -3710,19 +3710,19 @@
         <v>252961</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>221562</v>
+        <v>224210</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>285970</v>
+        <v>286304</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.03479652863809621</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.03047738934847743</v>
+        <v>0.0308417079322176</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.03933710177795498</v>
+        <v>0.0393831602559456</v>
       </c>
     </row>
     <row r="46">
@@ -3739,19 +3739,19 @@
         <v>334505</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>298148</v>
+        <v>296033</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>371702</v>
+        <v>376835</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0946865321925766</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.08439514600822193</v>
+        <v>0.08379642100480071</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1052157047970723</v>
+        <v>0.1066686600169214</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>476</v>
@@ -3760,19 +3760,19 @@
         <v>367642</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>335944</v>
+        <v>335322</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>401485</v>
+        <v>401739</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.09838017075998243</v>
+        <v>0.09838017075998244</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.08989775797883043</v>
+        <v>0.08973131119215022</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.107436419379323</v>
+        <v>0.1075044019730578</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>780</v>
@@ -3781,19 +3781,19 @@
         <v>702147</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>653866</v>
+        <v>649650</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>755174</v>
+        <v>754256</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.09658522505640894</v>
+        <v>0.09658522505640893</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.089943782233706</v>
+        <v>0.08936385047814015</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1038793679794209</v>
+        <v>0.1037531470884839</v>
       </c>
     </row>
     <row r="47">
@@ -3810,19 +3810,19 @@
         <v>3051574</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3000943</v>
+        <v>3003871</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3091016</v>
+        <v>3095619</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.8637927089721148</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.8494607264950373</v>
+        <v>0.8502896518243723</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.8749573781810883</v>
+        <v>0.8762603940234918</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>4701</v>
@@ -3831,19 +3831,19 @@
         <v>3218118</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3178670</v>
+        <v>3177838</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3256422</v>
+        <v>3255782</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.8611607234570927</v>
+        <v>0.8611607234570924</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.8506045850784183</v>
+        <v>0.8503820088130442</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.8714106987842486</v>
+        <v>0.8712394101696878</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>7636</v>
@@ -3852,19 +3852,19 @@
         <v>6269692</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>6208705</v>
+        <v>6210718</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6326355</v>
+        <v>6338241</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.8624397525244587</v>
+        <v>0.8624397525244586</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.8540505392360148</v>
+        <v>0.8543275252481485</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.8702341883990934</v>
+        <v>0.8718690847350031</v>
       </c>
     </row>
     <row r="48">
